--- a/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS90201_ホスト依頼削除画面.xlsx
+++ b/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS90201_ホスト依頼削除画面.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Projects\03.JTEKT\00.プロジェクト別\09.2024年度DRASAPサーバ更新2024\30.設計ドキュメント\T_テスト／移行\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\04.T_テスト／移行\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D072A282-A537-4C86-8A26-17FEE58040E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7132F7B2-3BB6-46BF-BB39-9A023F6EC0BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" tabRatio="368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="33120" windowHeight="18120" tabRatio="368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ホスト依頼削除画面" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="100">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -1318,6 +1318,25 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG⇒OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1540,7 +1559,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1617,6 +1636,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1658,9 +1686,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1950,43 +1975,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="31.2109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.0703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="44.7109375" style="1" customWidth="1"/>
-    <col min="8" max="10" width="46.85546875" style="1" customWidth="1"/>
-    <col min="11" max="12" width="46.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="84.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.2109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="45.78515625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="6.125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="31.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="44.75" style="1" customWidth="1"/>
+    <col min="8" max="10" width="46.875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="46.875" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="84.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.25" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="2" customWidth="1"/>
+    <col min="17" max="17" width="45.75" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.6" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="32" t="s">
+      <c r="N1" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="2">
+        <f>COUNTIF(N$7:N$1000,N1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="18" t="s">
         <v>94</v>
       </c>
@@ -1996,44 +2028,72 @@
       <c r="E2" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="34" t="s">
+      <c r="N2" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2" s="2">
+        <f t="shared" ref="O2:O4" si="0">COUNTIF(N$7:N$1000,N2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="5" t="s">
         <v>95</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="26">
         <v>45543</v>
       </c>
       <c r="F3" s="20"/>
-    </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="29" t="s">
+      <c r="N3" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A5" s="36" t="s">
+      <c r="N4" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="21"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.65">
+      <c r="N5" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="O5" s="28" t="str">
+        <f>"未実施："&amp;COUNTA(M$7:M$1000)-SUM(O1:O4)&amp;"／実施済："&amp;SUM(O1:O4)</f>
+        <v>未実施：43／実施済：0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="25" t="s">
         <v>93</v>
       </c>
@@ -2043,14 +2103,14 @@
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
@@ -2070,7 +2130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="9">
         <v>1</v>
       </c>
@@ -2099,7 +2159,7 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="15"/>
     </row>
-    <row r="8" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -2128,7 +2188,7 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="15"/>
     </row>
-    <row r="9" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -2153,7 +2213,7 @@
       <c r="P9" s="13"/>
       <c r="Q9" s="15"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -2178,7 +2238,7 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="15"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -2203,7 +2263,7 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="15"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -2228,7 +2288,7 @@
       <c r="P12" s="13"/>
       <c r="Q12" s="15"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -2259,7 +2319,7 @@
       <c r="P13" s="13"/>
       <c r="Q13" s="15"/>
     </row>
-    <row r="14" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -2286,7 +2346,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="15"/>
     </row>
-    <row r="15" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -2313,7 +2373,7 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="15"/>
     </row>
-    <row r="16" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -2340,7 +2400,7 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="15"/>
     </row>
-    <row r="17" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -2371,7 +2431,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="15"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="9">
         <v>12</v>
       </c>
@@ -2396,7 +2456,7 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="15"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
         <v>13</v>
       </c>
@@ -2421,7 +2481,7 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="15"/>
     </row>
-    <row r="20" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
         <v>14</v>
       </c>
@@ -2446,7 +2506,7 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="15"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
         <v>15</v>
       </c>
@@ -2471,7 +2531,7 @@
       <c r="P21" s="13"/>
       <c r="Q21" s="15"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="9">
         <v>16</v>
       </c>
@@ -2496,7 +2556,7 @@
       <c r="P22" s="13"/>
       <c r="Q22" s="15"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="9">
         <v>17</v>
       </c>
@@ -2521,7 +2581,7 @@
       <c r="P23" s="13"/>
       <c r="Q23" s="15"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="9">
         <v>18</v>
       </c>
@@ -2546,7 +2606,7 @@
       <c r="P24" s="13"/>
       <c r="Q24" s="15"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="9">
         <v>19</v>
       </c>
@@ -2579,7 +2639,7 @@
       <c r="P25" s="13"/>
       <c r="Q25" s="15"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="9">
         <v>20</v>
       </c>
@@ -2606,7 +2666,7 @@
       <c r="P26" s="13"/>
       <c r="Q26" s="15"/>
     </row>
-    <row r="27" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A27" s="9">
         <v>21</v>
       </c>
@@ -2633,7 +2693,7 @@
       <c r="P27" s="13"/>
       <c r="Q27" s="15"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="9">
         <v>22</v>
       </c>
@@ -2658,7 +2718,7 @@
       <c r="P28" s="13"/>
       <c r="Q28" s="15"/>
     </row>
-    <row r="29" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A29" s="9">
         <v>23</v>
       </c>
@@ -2685,7 +2745,7 @@
       <c r="P29" s="13"/>
       <c r="Q29" s="15"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="9">
         <v>24</v>
       </c>
@@ -2710,7 +2770,7 @@
       <c r="P30" s="13"/>
       <c r="Q30" s="15"/>
     </row>
-    <row r="31" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
         <v>25</v>
       </c>
@@ -2735,7 +2795,7 @@
       <c r="P31" s="13"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="32" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A32" s="9">
         <v>26</v>
       </c>
@@ -2760,7 +2820,7 @@
       <c r="P32" s="13"/>
       <c r="Q32" s="15"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="9">
         <v>27</v>
       </c>
@@ -2785,7 +2845,7 @@
       <c r="P33" s="13"/>
       <c r="Q33" s="15"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="9">
         <v>28</v>
       </c>
@@ -2810,7 +2870,7 @@
       <c r="P34" s="13"/>
       <c r="Q34" s="15"/>
     </row>
-    <row r="35" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A35" s="9">
         <v>29</v>
       </c>
@@ -2841,7 +2901,7 @@
       <c r="P35" s="13"/>
       <c r="Q35" s="15"/>
     </row>
-    <row r="36" spans="1:17" ht="123.45" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:17" ht="126" x14ac:dyDescent="0.4">
       <c r="A36" s="9">
         <v>30</v>
       </c>
@@ -2864,7 +2924,7 @@
       <c r="P36" s="13"/>
       <c r="Q36" s="15"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A37" s="9">
         <v>31</v>
       </c>
@@ -2887,7 +2947,7 @@
       <c r="P37" s="13"/>
       <c r="Q37" s="15"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A38" s="9">
         <v>32</v>
       </c>
@@ -2920,7 +2980,7 @@
       <c r="P38" s="13"/>
       <c r="Q38" s="15"/>
     </row>
-    <row r="39" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A39" s="9">
         <v>33</v>
       </c>
@@ -2947,7 +3007,7 @@
       <c r="P39" s="13"/>
       <c r="Q39" s="15"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A40" s="9">
         <v>34</v>
       </c>
@@ -2972,7 +3032,7 @@
       <c r="P40" s="13"/>
       <c r="Q40" s="15"/>
     </row>
-    <row r="41" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A41" s="9">
         <v>35</v>
       </c>
@@ -3001,7 +3061,7 @@
       <c r="P41" s="13"/>
       <c r="Q41" s="15"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A42" s="9">
         <v>36</v>
       </c>
@@ -3026,7 +3086,7 @@
       <c r="P42" s="13"/>
       <c r="Q42" s="15"/>
     </row>
-    <row r="43" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A43" s="9">
         <v>37</v>
       </c>
@@ -3051,7 +3111,7 @@
       <c r="P43" s="13"/>
       <c r="Q43" s="15"/>
     </row>
-    <row r="44" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A44" s="9">
         <v>38</v>
       </c>
@@ -3076,7 +3136,7 @@
       <c r="P44" s="13"/>
       <c r="Q44" s="15"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A45" s="9">
         <v>39</v>
       </c>
@@ -3101,7 +3161,7 @@
       <c r="P45" s="13"/>
       <c r="Q45" s="15"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A46" s="9">
         <v>40</v>
       </c>
@@ -3126,7 +3186,7 @@
       <c r="P46" s="13"/>
       <c r="Q46" s="15"/>
     </row>
-    <row r="47" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A47" s="9">
         <v>41</v>
       </c>
@@ -3157,7 +3217,7 @@
       <c r="P47" s="13"/>
       <c r="Q47" s="15"/>
     </row>
-    <row r="48" spans="1:17" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:17" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A48" s="9">
         <v>42</v>
       </c>
@@ -3180,7 +3240,7 @@
       <c r="P48" s="13"/>
       <c r="Q48" s="15"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A49" s="9">
         <v>43</v>
       </c>
@@ -3207,7 +3267,7 @@
       <c r="P49" s="13"/>
       <c r="Q49" s="15"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A50" s="9"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -3242,6 +3302,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100B932A2821493BB4AB71A0C79347FD678" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="528594b33024f52b27c0b5dcdc9dfa0b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xmlns:ns3="e8618445-b921-4c48-afdf-14e883213c59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25e4712d85e376121aa3366c94b400a9" ns2:_="" ns3:_="">
     <xsd:import namespace="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
@@ -3464,7 +3535,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3473,25 +3544,40 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C25EE1B-1FD7-4461-ABE4-B7C7F3423A93}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82115D8A-BCC7-4323-864F-1B9810736968}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B17309-6A8B-4967-B7C3-003C5CE9F0EB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C25EE1B-1FD7-4461-ABE4-B7C7F3423A93}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82115D8A-BCC7-4323-864F-1B9810736968}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B17309-6A8B-4967-B7C3-003C5CE9F0EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS90201_ホスト依頼削除画面.xlsx
+++ b/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS90201_ホスト依頼削除画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\04.T_テスト／移行\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7132F7B2-3BB6-46BF-BB39-9A023F6EC0BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521B1670-11F6-493C-A695-60466FD38B3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="33120" windowHeight="18120" tabRatio="368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="101">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -1337,6 +1337,23 @@
     <t>合計</t>
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>改修済、下記のメッセージが表示されます。
+・認証に失敗しました。[ログインユーザ名] さんは運用支援ツール使用ユーザとして登録されていません。</t>
+    <rPh sb="0" eb="2">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズミ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1975,8 +1992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="J13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2344,7 +2361,9 @@
       <c r="N14" s="13"/>
       <c r="O14" s="14"/>
       <c r="P14" s="13"/>
-      <c r="Q14" s="15"/>
+      <c r="Q14" s="22" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
@@ -3313,6 +3332,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100B932A2821493BB4AB71A0C79347FD678" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="528594b33024f52b27c0b5dcdc9dfa0b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xmlns:ns3="e8618445-b921-4c48-afdf-14e883213c59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25e4712d85e376121aa3366c94b400a9" ns2:_="" ns3:_="">
     <xsd:import namespace="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
@@ -3535,15 +3563,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82115D8A-BCC7-4323-864F-1B9810736968}">
   <ds:schemaRefs>
@@ -3556,6 +3575,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B17309-6A8B-4967-B7C3-003C5CE9F0EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C25EE1B-1FD7-4461-ABE4-B7C7F3423A93}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3572,12 +3599,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B17309-6A8B-4967-B7C3-003C5CE9F0EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS90201_ホスト依頼削除画面.xlsx
+++ b/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS90201_ホスト依頼削除画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\04.T_テスト／移行\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3D5806-D1A6-410E-936E-7D1A3A3FD3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D7A9B2-821C-489B-8181-96584850218F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="767" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1687,9 +1687,6 @@
     <t>OUT_UNIT</t>
   </si>
   <si>
-    <t>20180124A05943</t>
-  </si>
-  <si>
     <t>KST-0418</t>
   </si>
   <si>
@@ -1712,6 +1709,10 @@
   </si>
   <si>
     <t>TDS1</t>
+  </si>
+  <si>
+    <t>20180124A05943</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2114,6 +2115,21 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2155,21 +2171,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -26524,13 +26525,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="19"/>
       <c r="N1" s="27" t="s">
         <v>63</v>
@@ -26541,10 +26542,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="18" t="s">
         <v>91</v>
       </c>
@@ -26563,10 +26564,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="5" t="s">
         <v>92</v>
       </c>
@@ -26586,13 +26587,13 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="19"/>
       <c r="N4" s="27" t="s">
         <v>95</v>
@@ -26603,13 +26604,13 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
       <c r="F5" s="21"/>
       <c r="N5" s="27" t="s">
         <v>96</v>
@@ -26629,14 +26630,14 @@
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="33"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
@@ -27913,8 +27914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A622DC-6F4A-465A-9D8D-30047B1ABF0C}">
   <dimension ref="B2:AW145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K137" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AV157" sqref="AV157"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -27933,266 +27934,266 @@
     </row>
     <row r="4" spans="2:49" x14ac:dyDescent="0.4">
       <c r="B4" s="29"/>
-      <c r="AD4" s="45" t="s">
+      <c r="AD4" s="31" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="5" spans="2:49" ht="54" x14ac:dyDescent="0.4">
       <c r="B5" s="29"/>
-      <c r="AD5" s="46" t="s">
+      <c r="AD5" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="AE5" s="46" t="s">
+      <c r="AE5" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="AF5" s="46" t="s">
+      <c r="AF5" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="AG5" s="46" t="s">
+      <c r="AG5" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="AH5" s="46" t="s">
+      <c r="AH5" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="AI5" s="46" t="s">
+      <c r="AI5" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="AJ5" s="46" t="s">
+      <c r="AJ5" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="AK5" s="46" t="s">
+      <c r="AK5" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="AL5" s="46" t="s">
+      <c r="AL5" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="AM5" s="46" t="s">
+      <c r="AM5" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="AN5" s="46" t="s">
+      <c r="AN5" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="AO5" s="46" t="s">
+      <c r="AO5" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="AP5" s="46" t="s">
+      <c r="AP5" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="AQ5" s="46" t="s">
+      <c r="AQ5" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="AR5" s="46" t="s">
+      <c r="AR5" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="AS5" s="46" t="s">
+      <c r="AS5" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="AT5" s="46" t="s">
+      <c r="AT5" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="AU5" s="46" t="s">
+      <c r="AU5" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="AV5" s="46" t="s">
+      <c r="AV5" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="AW5" s="46" t="s">
+      <c r="AW5" s="32" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="6" spans="2:49" x14ac:dyDescent="0.4">
       <c r="B6" s="29"/>
-      <c r="AD6" s="47" t="s">
+      <c r="AD6" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE6" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="AE6" s="47" t="s">
+      <c r="AF6" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="AF6" s="47" t="s">
+      <c r="AG6" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="AG6" s="47" t="s">
+      <c r="AH6" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="AH6" s="48" t="s">
+      <c r="AI6" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="AI6" s="47" t="s">
+      <c r="AJ6" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK6" s="35">
+        <v>45161.545925925922</v>
+      </c>
+      <c r="AL6" s="35">
+        <v>45161.545925925922</v>
+      </c>
+      <c r="AM6" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="AJ6" s="47" t="s">
+      <c r="AN6" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="AK6" s="49">
-        <v>45161.545925925922</v>
-      </c>
-      <c r="AL6" s="49">
-        <v>45161.545925925922</v>
-      </c>
-      <c r="AM6" s="47" t="s">
+      <c r="AO6" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AN6" s="47" t="s">
+      <c r="AP6" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AO6" s="47" t="s">
+      <c r="AQ6" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR6" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="AP6" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="AQ6" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="AR6" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="AS6" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="AT6" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU6" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="AV6" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="AW6" s="49">
+      <c r="AS6" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT6" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU6" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AV6" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="AW6" s="35">
         <v>45161.54519675926</v>
       </c>
     </row>
     <row r="143" spans="2:49" x14ac:dyDescent="0.4">
       <c r="B143" s="29"/>
-      <c r="AD143" s="45" t="s">
+      <c r="AD143" s="31" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="144" spans="2:49" ht="54" x14ac:dyDescent="0.4">
       <c r="B144" s="29"/>
-      <c r="AD144" s="46" t="s">
+      <c r="AD144" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="AE144" s="46" t="s">
+      <c r="AE144" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="AF144" s="46" t="s">
+      <c r="AF144" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="AG144" s="46" t="s">
+      <c r="AG144" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="AH144" s="46" t="s">
+      <c r="AH144" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="AI144" s="46" t="s">
+      <c r="AI144" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="AJ144" s="46" t="s">
+      <c r="AJ144" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="AK144" s="46" t="s">
+      <c r="AK144" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="AL144" s="46" t="s">
+      <c r="AL144" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="AM144" s="46" t="s">
+      <c r="AM144" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="AN144" s="46" t="s">
+      <c r="AN144" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="AO144" s="46" t="s">
+      <c r="AO144" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="AP144" s="46" t="s">
+      <c r="AP144" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="AQ144" s="46" t="s">
+      <c r="AQ144" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="AR144" s="46" t="s">
+      <c r="AR144" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="AS144" s="46" t="s">
+      <c r="AS144" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="AT144" s="46" t="s">
+      <c r="AT144" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="AU144" s="46" t="s">
+      <c r="AU144" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="AV144" s="46" t="s">
+      <c r="AV144" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="AW144" s="46" t="s">
+      <c r="AW144" s="32" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="145" spans="2:49" x14ac:dyDescent="0.4">
       <c r="B145" s="29"/>
-      <c r="AD145" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE145" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF145" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG145" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH145" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI145" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ145" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK145" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL145" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM145" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="AN145" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO145" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="AP145" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="AQ145" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR145" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="AS145" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="AT145" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU145" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="AV145" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW145" s="48" t="s">
-        <v>130</v>
+      <c r="AD145" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE145" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF145" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG145" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH145" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI145" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ145" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK145" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL145" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM145" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN145" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO145" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP145" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ145" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR145" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS145" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT145" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU145" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AV145" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW145" s="34" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -28477,14 +28478,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28711,21 +28710,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82115D8A-BCC7-4323-864F-1B9810736968}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B17309-6A8B-4967-B7C3-003C5CE9F0EB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
-    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28750,9 +28748,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B17309-6A8B-4967-B7C3-003C5CE9F0EB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82115D8A-BCC7-4323-864F-1B9810736968}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS90201_ホスト依頼削除画面.xlsx
+++ b/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS90201_ホスト依頼削除画面.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\04.T_テスト／移行\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789B04BF-8E6B-4827-B9CC-58075897D9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEB6E4A-D950-4B0F-82E2-A017BF5CA78C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="767" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,10 +43,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -54,20 +54,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="140">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
       <t>サクセイシャ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
       <t>サクセイビ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>テスト前提条件</t>
@@ -77,7 +77,7 @@
     <rPh sb="5" eb="7">
       <t>ジョウケン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>機能 大項目</t>
@@ -87,7 +87,7 @@
     <rPh sb="3" eb="6">
       <t>ダイコウモク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>機能 中項目</t>
@@ -97,7 +97,7 @@
     <rPh sb="4" eb="6">
       <t>コウモク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>詳細項目
@@ -120,7 +120,7 @@
     <rPh sb="15" eb="16">
       <t>フ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>確認内容</t>
@@ -130,11 +130,11 @@
     <rPh sb="2" eb="4">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>OK/NG</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>確認日</t>
@@ -144,43 +144,43 @@
     <rPh sb="2" eb="3">
       <t>ビ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>機能ID</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>機能名</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>タイトル</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>・無し</t>
     <rPh sb="1" eb="2">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>テスト仕様書兼報告書</t>
@@ -193,14 +193,14 @@
     <rPh sb="7" eb="10">
       <t>ホウコクショ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ヘッダ部</t>
     <rPh sb="3" eb="4">
       <t>ブ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>画面起動時</t>
@@ -213,7 +213,7 @@
     <rPh sb="4" eb="5">
       <t>ジ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>画面項目</t>
@@ -223,39 +223,39 @@
     <rPh sb="2" eb="4">
       <t>コウモク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>田中克昌</t>
     <rPh sb="0" eb="4">
       <t>タナカカツマサ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ログインボタンをクリックする</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>説明文</t>
     <rPh sb="0" eb="3">
       <t>セツメイブン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>戻るボタンをクリック</t>
     <rPh sb="0" eb="1">
       <t>モド</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>運用支援</t>
     <rPh sb="0" eb="4">
       <t>ウンヨウシエン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>起動方法</t>
@@ -265,7 +265,7 @@
     <rPh sb="2" eb="4">
       <t>ホウホウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>別ウィンドウでブラウザを起動する</t>
@@ -275,7 +275,7 @@
     <rPh sb="12" eb="14">
       <t>キドウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>タイトルが下記の通り表示されること
@@ -295,7 +295,7 @@
     <rPh sb="53" eb="55">
       <t>シエン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ログインの説明文は、以下の通りであること
@@ -313,11 +313,11 @@
     <rPh sb="13" eb="14">
       <t>トオ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>passwd :</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>運用支援ツール用のパスワード入力欄が存在する。</t>
@@ -336,15 +336,15 @@
     <rPh sb="18" eb="20">
       <t>ソンザイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ログイン</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>キャンセル</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ログイン用のボタンが有効になっている</t>
@@ -354,7 +354,7 @@
     <rPh sb="10" eb="12">
       <t>ユウコウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>キャンセル用のボタンが有効になっている</t>
@@ -364,30 +364,30 @@
     <rPh sb="11" eb="13">
       <t>ユウコウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>パスワード</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>未入力</t>
     <rPh sb="0" eb="3">
       <t>ミニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ログインボタンをクリック</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>・Password を入力して下さい</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>・認証に失敗しました。Password を正しく入力して下さい。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>D:\Tomcat8\DRASAP\userDef\delHostReqPs.csvのファイルに、ログインユーザーIDとパスワードが定義されていない状態で適当な文字を入力</t>
@@ -406,7 +406,7 @@
     <rPh sb="83" eb="85">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>D:\Tomcat8\DRASAP\userDef\delHostReqPs.csvのファイルに、ログインユーザーIDとパスワードが定義されている状態で登録されていないパスワードを入力</t>
@@ -422,7 +422,7 @@
     <rPh sb="90" eb="92">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>D:\Tomcat8\DRASAP\userDef\delHostReqPs.csvのファイルに、ログインユーザーIDとパスワードが定義されている状態で登録されているパスワードを入力</t>
@@ -438,7 +438,7 @@
     <rPh sb="89" eb="91">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -478,7 +478,7 @@
     <rPh sb="66" eb="69">
       <t>フグアイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>HOST依頼削除画面に遷移する</t>
@@ -494,7 +494,7 @@
     <rPh sb="11" eb="13">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>タイトルが下記の通り表示されること
@@ -514,14 +514,14 @@
     <rPh sb="57" eb="59">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>画面タイトル</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>「HOST依頼削除」と表示されている</t>
@@ -531,7 +531,7 @@
     <rPh sb="11" eb="13">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>「依頼番号を指定してHOST依頼を削除します」と表示されている</t>
@@ -553,7 +553,7 @@
     <rPh sb="24" eb="26">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>HOST依頼選択</t>
@@ -563,7 +563,7 @@
     <rPh sb="6" eb="8">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>削除依頼番号の入力欄</t>
@@ -573,7 +573,7 @@
     <rPh sb="9" eb="10">
       <t>ラン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>削除依頼番号と記載されたラベルがあり、依頼番号のテキスト入力欄が、10用意されている</t>
@@ -601,15 +601,15 @@
     <rPh sb="35" eb="37">
       <t>ヨウイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>クリア</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>削除</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>クリアボタンがアクティブな状態で表示されている</t>
@@ -619,18 +619,18 @@
     <rPh sb="16" eb="18">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>削除ボタンがアクティブな状態で表示されている</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>戻る</t>
     <rPh sb="0" eb="1">
       <t>モド</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>戻るボタンがアクティブな状態で表示されている</t>
@@ -643,7 +643,7 @@
     <rPh sb="15" eb="17">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>何も選択しない</t>
@@ -653,22 +653,22 @@
     <rPh sb="2" eb="4">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>削除ボタンをクリック</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>HOST依頼を選択してください。　OK</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>依頼番号をひとつ以上指定してください。　OK</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>この1件の依頼を完全に削除します。
@@ -689,7 +689,7 @@
     <rPh sb="18" eb="20">
       <t>ホントウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>HOST依頼削除画面に戻る</t>
@@ -705,11 +705,11 @@
     <rPh sb="11" eb="12">
       <t>モド</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>OK</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -760,7 +760,7 @@
     <rPh sb="60" eb="63">
       <t>サクジョチュウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>生産出図準備サーバが起動していない場合</t>
@@ -779,7 +779,7 @@
     <rPh sb="17" eb="19">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>生産出図準備サーバが起動している場合</t>
@@ -798,15 +798,15 @@
     <rPh sb="16" eb="18">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>・依頼[YYYYMMDDAnnnnn]は見つかりませんでした。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>クリアボタンをクリック</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>HOST依頼選択の選択が外れ（どちらも選択されていない）、HOST依頼番号がクリアされる</t>
@@ -825,7 +825,7 @@
     <rPh sb="35" eb="37">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>HOST依頼画面を閉じて、検索画面に戻る</t>
@@ -847,7 +847,7 @@
     <rPh sb="18" eb="19">
       <t>モド</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -902,7 +902,7 @@
     <rPh sb="97" eb="99">
       <t>カイジョ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -931,7 +931,7 @@
     <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>生産用図面出力テーブルの当該HOST依頼IDのレコードが削除されている</t>
@@ -956,18 +956,18 @@
     <rPh sb="28" eb="30">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>HOST帳票出力依頼削除</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>HOST帳票出力依頼削除を選択</t>
     <rPh sb="13" eb="15">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>HOST依頼選択として、
@@ -983,14 +983,14 @@
     <rPh sb="60" eb="62">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>HOST帳票出力依頼削除</t>
     <rPh sb="10" eb="12">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t xml:space="preserve">HOST帳票出力依頼IDとして、適当形式で名称を入力
@@ -1007,14 +1007,14 @@
     <rPh sb="24" eb="26">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>入力チェック</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t xml:space="preserve">HOST帳票出力依頼IDとして処理されていない名称を入力
@@ -1035,7 +1035,7 @@
     <rPh sb="35" eb="36">
       <t>タダ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>HOST帳票出力依頼番号はYYYYMMDD[B|D]nnnnnで入力してください。　OK
@@ -1055,11 +1055,11 @@
     <rPh sb="70" eb="72">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>・依頼[YYYYMMDDBnnnnn]は見つかりませんでした。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t xml:space="preserve">生産出図準備サーバ内の以下のファイル or フォルダが移動される
@@ -1085,7 +1085,7 @@
     <rPh sb="376" eb="378">
       <t>イドウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>生産出図準備サーバ内の以下のフォルダが移動 or 削除される
@@ -1117,7 +1117,7 @@
     <rPh sb="232" eb="234">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>HOST帳票出力依頼IDとして、生産用図面出力テーブルのHOST依頼IDに登録されている名称を入力
@@ -1164,7 +1164,7 @@
     <rPh sb="74" eb="75">
       <t>ツカ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -1221,18 +1221,18 @@
     <rPh sb="81" eb="83">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>戻る</t>
     <rPh sb="0" eb="1">
       <t>モド</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>クリック</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>何もしないで、画面を閉じる</t>
@@ -1245,15 +1245,15 @@
     <rPh sb="10" eb="11">
       <t>ト</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>DMS90201</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ホスト依頼削除画面</t>
@@ -1266,26 +1266,26 @@
     <rPh sb="7" eb="9">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>NG</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>N/A</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>NG⇒OK</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>合計</t>
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>改修済、下記のメッセージが表示されます。
@@ -1302,15 +1302,15 @@
     <rPh sb="13" eb="15">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>OLD</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>NEW</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -1333,196 +1333,7 @@
       <t xml:space="preserve">
 OKを押すと、エラーになった依頼番号が赤色の文字で表示される</t>
     </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>HOST帳票出力依頼削除を選択</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-HOST帳票出図依頼削除を選択</t>
-    </r>
-    <rPh sb="13" eb="15">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>HOST帳票出力依頼IDとして、適当形式で名称を入力</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-HOST帳票出図依頼IDとして、適当形式で名称を入力
-</t>
-    </r>
-    <rPh sb="16" eb="18">
-      <t>テキトウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>メイショウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>HOST帳票</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>出力</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">出図依頼IDとして、生産用図面出力テーブルのHOST依頼IDに登録されていない名称を入力
-</t>
-    </r>
-    <rPh sb="18" eb="20">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>イライ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>メイショウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>HOST帳票</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>出力</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">出図依頼IDとして、生産用図面出力テーブルのHOST依頼IDに登録されている名称を入力
-※生産出図準備サーバ内にデータが残っているものを使う
-</t>
-    </r>
-    <rPh sb="18" eb="20">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>イライ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>メイショウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>シュツズ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>HOST_IRAI_ID</t>
@@ -1727,7 +1538,7 @@
   </si>
   <si>
     <t>20180124A06106</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -1833,18 +1644,95 @@
       </rPr>
       <t>'20180124A05943'</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>20180124A05943</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>馬睿智</t>
     <rPh sb="0" eb="3">
       <t>マエイチ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">HOST帳票出力依頼IDとして、生産用図面出力テーブルのHOST依頼IDに登録されている名称を入力
+※生産出図準備サーバ内にデータが残っているものを使う
+</t>
+    <rPh sb="16" eb="18">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>シュツズ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">HOST帳票出力依頼IDとして、生産用図面出力テーブルのHOST依頼IDに登録されていない名称を入力
+</t>
+    <rPh sb="16" eb="18">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1857,6 +1745,14 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1924,14 +1820,6 @@
       <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2150,98 +2038,101 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2268,53 +2159,66 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -27753,8 +27657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -27939,7 +27843,7 @@
         <v>45560</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q7" s="14"/>
     </row>
@@ -27974,7 +27878,7 @@
         <v>45560</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q8" s="14"/>
     </row>
@@ -28005,7 +27909,7 @@
         <v>45560</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q9" s="14"/>
     </row>
@@ -28036,7 +27940,7 @@
         <v>45560</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="14"/>
     </row>
@@ -28067,7 +27971,7 @@
         <v>45560</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="14"/>
     </row>
@@ -28098,7 +28002,7 @@
         <v>45560</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q12" s="14"/>
     </row>
@@ -28135,7 +28039,7 @@
         <v>45560</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q13" s="14"/>
     </row>
@@ -28168,7 +28072,7 @@
         <v>45560</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q14" s="21" t="s">
         <v>97</v>
@@ -28203,7 +28107,7 @@
         <v>45560</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q15" s="14"/>
     </row>
@@ -28236,7 +28140,7 @@
         <v>45560</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q16" s="14"/>
     </row>
@@ -28273,7 +28177,7 @@
         <v>45560</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q17" s="14"/>
     </row>
@@ -28304,7 +28208,7 @@
         <v>45560</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q18" s="14"/>
     </row>
@@ -28335,7 +28239,7 @@
         <v>45560</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q19" s="14"/>
     </row>
@@ -28366,7 +28270,7 @@
         <v>45560</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="14"/>
     </row>
@@ -28397,7 +28301,7 @@
         <v>45560</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q21" s="14"/>
     </row>
@@ -28428,7 +28332,7 @@
         <v>45560</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q22" s="14"/>
     </row>
@@ -28459,7 +28363,7 @@
         <v>45560</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="14"/>
     </row>
@@ -28490,7 +28394,7 @@
         <v>45560</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q24" s="14"/>
     </row>
@@ -28529,11 +28433,11 @@
         <v>45560</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q25" s="14"/>
     </row>
-    <row r="26" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A26" s="29">
         <v>20</v>
       </c>
@@ -28542,8 +28446,8 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="9" t="s">
-        <v>101</v>
+      <c r="G26" s="53" t="s">
+        <v>75</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>58</v>
@@ -28562,11 +28466,11 @@
         <v>45560</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q26" s="14"/>
     </row>
-    <row r="27" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A27" s="29">
         <v>21</v>
       </c>
@@ -28575,8 +28479,8 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="9" t="s">
-        <v>102</v>
+      <c r="G27" s="52" t="s">
+        <v>78</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>58</v>
@@ -28595,7 +28499,7 @@
         <v>45560</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q27" s="14"/>
     </row>
@@ -28626,7 +28530,7 @@
         <v>45560</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q28" s="14"/>
     </row>
@@ -28638,8 +28542,8 @@
       <c r="C29" s="10"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="9" t="s">
-        <v>103</v>
+      <c r="F29" s="54" t="s">
+        <v>139</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>58</v>
@@ -28659,7 +28563,7 @@
         <v>45560</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q29" s="14"/>
     </row>
@@ -28690,7 +28594,7 @@
         <v>45560</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q30" s="14"/>
     </row>
@@ -28721,7 +28625,7 @@
         <v>45560</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q31" s="14"/>
     </row>
@@ -28752,7 +28656,7 @@
         <v>45560</v>
       </c>
       <c r="P32" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q32" s="14"/>
     </row>
@@ -28783,7 +28687,7 @@
         <v>45560</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q33" s="14"/>
     </row>
@@ -28814,7 +28718,7 @@
         <v>45560</v>
       </c>
       <c r="P34" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q34" s="14"/>
     </row>
@@ -28826,8 +28730,8 @@
       <c r="C35" s="10"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="9" t="s">
-        <v>104</v>
+      <c r="F35" s="55" t="s">
+        <v>138</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>58</v>
@@ -28851,7 +28755,7 @@
         <v>45560</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q35" s="14"/>
     </row>
@@ -28880,7 +28784,7 @@
         <v>45560</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q36" s="14"/>
     </row>
@@ -28909,7 +28813,7 @@
         <v>45560</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q37" s="14"/>
     </row>
@@ -28948,7 +28852,7 @@
         <v>45560</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q38" s="14"/>
     </row>
@@ -28981,7 +28885,7 @@
         <v>45560</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q39" s="14"/>
     </row>
@@ -29012,7 +28916,7 @@
         <v>45560</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q40" s="14"/>
     </row>
@@ -29047,7 +28951,7 @@
         <v>45560</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q41" s="14"/>
     </row>
@@ -29078,7 +28982,7 @@
         <v>45560</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q42" s="14"/>
     </row>
@@ -29109,7 +29013,7 @@
         <v>45560</v>
       </c>
       <c r="P43" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q43" s="14"/>
     </row>
@@ -29140,7 +29044,7 @@
         <v>45560</v>
       </c>
       <c r="P44" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q44" s="14"/>
     </row>
@@ -29171,7 +29075,7 @@
         <v>45560</v>
       </c>
       <c r="P45" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q45" s="14"/>
     </row>
@@ -29202,7 +29106,7 @@
         <v>45560</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q46" s="14"/>
     </row>
@@ -29239,7 +29143,7 @@
         <v>45560</v>
       </c>
       <c r="P47" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q47" s="14"/>
     </row>
@@ -29268,7 +29172,7 @@
         <v>45560</v>
       </c>
       <c r="P48" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q48" s="14"/>
     </row>
@@ -29301,7 +29205,7 @@
         <v>45560</v>
       </c>
       <c r="P49" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q49" s="14"/>
     </row>
@@ -29314,7 +29218,7 @@
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <hyperlinks>
     <hyperlink ref="A7" location="'No.1~6'!A1" display="'No.1~6'!A1" xr:uid="{BFCE34DF-CC87-4053-8D16-4323B27EEACC}"/>
     <hyperlink ref="A8:A12" location="'No.1~6'!A1" display="'No.1~6'!A1" xr:uid="{3A884810-0393-4ACB-9F32-D07CA5758926}"/>
@@ -29365,7 +29269,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -29388,7 +29292,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -29411,7 +29315,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -29435,155 +29339,155 @@
     </row>
     <row r="4" spans="2:49" x14ac:dyDescent="0.4">
       <c r="B4" s="30" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AD4" s="30" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="2:49" ht="54" x14ac:dyDescent="0.4">
       <c r="B5" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="G5" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="H5" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="I5" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="J5" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="K5" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="L5" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="M5" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="N5" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="O5" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="P5" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="M5" s="31" t="s">
+      <c r="Q5" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="N5" s="31" t="s">
+      <c r="R5" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="O5" s="31" t="s">
+      <c r="S5" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="P5" s="31" t="s">
+      <c r="T5" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="Q5" s="31" t="s">
+      <c r="U5" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="R5" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="S5" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="T5" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="U5" s="31" t="s">
-        <v>124</v>
-      </c>
       <c r="AD5" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE5" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF5" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG5" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH5" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="AE5" s="31" t="s">
+      <c r="AI5" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="AF5" s="31" t="s">
+      <c r="AJ5" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="AG5" s="31" t="s">
+      <c r="AK5" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="AH5" s="31" t="s">
+      <c r="AL5" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="AI5" s="31" t="s">
+      <c r="AM5" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="AJ5" s="31" t="s">
+      <c r="AN5" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="AK5" s="31" t="s">
+      <c r="AO5" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="AL5" s="31" t="s">
+      <c r="AP5" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="AM5" s="31" t="s">
+      <c r="AQ5" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="AN5" s="31" t="s">
+      <c r="AR5" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="AO5" s="31" t="s">
+      <c r="AS5" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="AP5" s="31" t="s">
+      <c r="AT5" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="AQ5" s="31" t="s">
+      <c r="AU5" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="AR5" s="31" t="s">
+      <c r="AV5" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="AS5" s="31" t="s">
+      <c r="AW5" s="31" t="s">
         <v>120</v>
-      </c>
-      <c r="AT5" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU5" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="AV5" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="AW5" s="31" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="6" spans="2:49" x14ac:dyDescent="0.4">
       <c r="B6" s="32" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I6" s="34">
         <v>45161.553124999999</v>
@@ -29592,58 +29496,58 @@
         <v>45161.553124999999</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M6" s="32" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N6" s="32" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="O6" s="32" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q6" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="R6" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="S6" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="T6" s="32" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="U6" s="34">
         <v>45161.54519675926</v>
       </c>
       <c r="AD6" s="32" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AE6" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF6" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG6" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH6" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI6" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="AF6" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG6" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH6" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI6" s="32" t="s">
-        <v>129</v>
-      </c>
       <c r="AJ6" s="32" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AK6" s="34">
         <v>45161.545925925922</v>
@@ -29652,34 +29556,34 @@
         <v>45161.545925925922</v>
       </c>
       <c r="AM6" s="32" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AN6" s="32" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AO6" s="32" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AP6" s="32" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AQ6" s="32" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AR6" s="32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AS6" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AT6" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AU6" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AV6" s="32" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AW6" s="34">
         <v>45161.54519675926</v>
@@ -29702,258 +29606,258 @@
     </row>
     <row r="143" spans="2:49" x14ac:dyDescent="0.4">
       <c r="B143" s="30" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AD143" s="30" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="144" spans="2:49" ht="54" x14ac:dyDescent="0.4">
       <c r="B144" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C144" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D144" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E144" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="F144" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="C144" s="31" t="s">
+      <c r="G144" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="D144" s="31" t="s">
+      <c r="H144" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="E144" s="31" t="s">
+      <c r="I144" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="F144" s="31" t="s">
+      <c r="J144" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="G144" s="31" t="s">
+      <c r="K144" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="H144" s="31" t="s">
+      <c r="L144" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="I144" s="31" t="s">
+      <c r="M144" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="J144" s="31" t="s">
+      <c r="N144" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="K144" s="31" t="s">
+      <c r="O144" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="L144" s="31" t="s">
+      <c r="P144" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="M144" s="31" t="s">
+      <c r="Q144" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="N144" s="31" t="s">
+      <c r="R144" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="O144" s="31" t="s">
+      <c r="S144" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="P144" s="31" t="s">
+      <c r="T144" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="Q144" s="31" t="s">
+      <c r="U144" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="R144" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="S144" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="T144" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="U144" s="31" t="s">
-        <v>124</v>
-      </c>
       <c r="AD144" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE144" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF144" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG144" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH144" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="AE144" s="31" t="s">
+      <c r="AI144" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="AF144" s="31" t="s">
+      <c r="AJ144" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="AG144" s="31" t="s">
+      <c r="AK144" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="AH144" s="31" t="s">
+      <c r="AL144" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="AI144" s="31" t="s">
+      <c r="AM144" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="AJ144" s="31" t="s">
+      <c r="AN144" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="AK144" s="31" t="s">
+      <c r="AO144" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="AL144" s="31" t="s">
+      <c r="AP144" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="AM144" s="31" t="s">
+      <c r="AQ144" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="AN144" s="31" t="s">
+      <c r="AR144" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="AO144" s="31" t="s">
+      <c r="AS144" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="AP144" s="31" t="s">
+      <c r="AT144" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="AQ144" s="31" t="s">
+      <c r="AU144" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="AR144" s="31" t="s">
+      <c r="AV144" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="AS144" s="31" t="s">
+      <c r="AW144" s="31" t="s">
         <v>120</v>
-      </c>
-      <c r="AT144" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU144" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="AV144" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="AW144" s="31" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="145" spans="2:49" x14ac:dyDescent="0.4">
       <c r="B145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="N145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="R145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="S145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="T145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="U145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AD145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AE145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AF145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AG145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AI145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AJ145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AK145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AL145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AM145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AN145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AO145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AP145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AQ145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AR145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AS145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AT145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AU145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AV145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AW145" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -29976,7 +29880,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -29999,7 +29903,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -30022,7 +29926,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -30045,7 +29949,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -30083,7 +29987,7 @@
       <c r="N7" s="37"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -30106,7 +30010,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -30129,7 +30033,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -30152,7 +30056,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -30175,7 +30079,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -30198,7 +30102,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -30221,7 +30125,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -30244,7 +30148,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -30267,7 +30171,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -30290,19 +30194,21 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30529,20 +30435,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B17309-6A8B-4967-B7C3-003C5CE9F0EB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82115D8A-BCC7-4323-864F-1B9810736968}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -30567,12 +30474,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82115D8A-BCC7-4323-864F-1B9810736968}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B17309-6A8B-4967-B7C3-003C5CE9F0EB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
-    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>